--- a/resources/life_tables.xlsx
+++ b/resources/life_tables.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Age</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t>** Girls spend 32% more time than boys on SM http://kff.org/disparities-policy/press-release/daily-media-use-among-children-and-teens-up-dramatically-from-five-years-ago/</t>
+  </si>
+  <si>
+    <t>2 hours per day is ~8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 is 12.5% </t>
   </si>
 </sst>
 </file>
@@ -84,7 +90,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -175,35 +181,35 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent5" xfId="4" builtinId="46"/>
@@ -523,110 +529,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R13"/>
+  <dimension ref="A2:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:H7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="11" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="N3" s="6" t="s">
+      <c r="J3" s="11"/>
+      <c r="N3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
         <v>0</v>
       </c>
       <c r="C5" s="3">
@@ -639,21 +650,21 @@
       <c r="E5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="7">
         <f>D5*52*7*24</f>
         <v>696870.72</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="7">
         <f>F5</f>
         <v>696870.72</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="N5" s="3">
@@ -666,17 +677,17 @@
       <c r="P5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="7">
         <f>O5*52*7*24</f>
         <v>733125.12</v>
       </c>
-      <c r="R5" s="10">
+      <c r="R5" s="7">
         <f>Q5</f>
         <v>733125.12</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
         <v>18</v>
       </c>
       <c r="C6" s="3">
@@ -690,19 +701,19 @@
         <f>D6-C$5</f>
         <v>0.60999999999999943</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <f t="shared" ref="F6:F8" si="1">D6*52*7*24</f>
         <v>702199.67999999993</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="7">
         <f>C6*52*7*24</f>
         <v>544951.67999999993</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="10">
         <f>(G5-G6)/24</f>
         <v>6329.9600000000019</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="12">
         <f>3*7*52*5/24</f>
         <v>227.5</v>
       </c>
@@ -721,17 +732,17 @@
         <f>O6-N$5</f>
         <v>0.51000000000000512</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="7">
         <f t="shared" ref="Q6:Q8" si="2">O6*52*7*24</f>
         <v>737580.4800000001</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="7">
         <f>N6*52*7*24</f>
         <v>580332.4800000001</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
         <v>35</v>
       </c>
       <c r="C7" s="3">
@@ -745,20 +756,26 @@
         <f>D7-C$5</f>
         <v>2.1300000000000097</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>715478.4</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="7">
         <f>C7*52*7*24</f>
         <v>409718.39999999997</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="10">
         <f>(G6-G7)/24</f>
         <v>5634.7199999999984</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="2"/>
+      <c r="I7" s="12">
+        <f>I6+(2*7*52*(35-18)/24)</f>
+        <v>743.16666666666663</v>
+      </c>
+      <c r="J7" s="2">
+        <f>I7/H7*100</f>
+        <v>13.189061154177436</v>
+      </c>
       <c r="N7" s="3">
         <v>50.7</v>
       </c>
@@ -770,17 +787,17 @@
         <f>O7-N$5</f>
         <v>1.7800000000000011</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="7">
         <f t="shared" si="2"/>
         <v>748675.20000000007</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="7">
         <f>N7*52*7*24</f>
         <v>442915.19999999995</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="9">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
         <v>65</v>
       </c>
       <c r="C8" s="3">
@@ -794,25 +811,25 @@
         <f>D8-C$5</f>
         <v>4.230000000000004</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
         <v>733824</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="7">
         <f>C8*52*7*24</f>
         <v>165984</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="10">
         <f>(G5-G8)/24</f>
         <v>22120.28</v>
       </c>
-      <c r="I8" s="15">
-        <f>2*7*52*(65-18)/24</f>
-        <v>1425.6666666666667</v>
+      <c r="I8" s="12">
+        <f>I7+(2*7*52*(65-18)/24)</f>
+        <v>2168.8333333333335</v>
       </c>
       <c r="J8" s="2">
         <f>I8/H8*100</f>
-        <v>6.4450660962097537</v>
+        <v>9.804728210191433</v>
       </c>
       <c r="N8" s="3">
         <v>21.89</v>
@@ -825,23 +842,33 @@
         <f>O8-N$5</f>
         <v>2.9699999999999989</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="7">
         <f t="shared" si="2"/>
         <v>759071.04</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="7">
         <f>N8*52*7*24</f>
         <v>191231.04</v>
       </c>
     </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
